--- a/Code Lists/PEPPOL Code Lists - Document types v7.xlsx
+++ b/Code Lists/PEPPOL Code Lists - Document types v7.xlsx
@@ -544,18 +544,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -579,16 +573,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -602,16 +593,10 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1015,21 +1000,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="103.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="47.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="103.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="45">
@@ -1039,10 +1024,10 @@
       <c r="B1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1074,24 +1059,24 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="H2" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1105,24 +1090,24 @@
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="H3" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1136,29 +1121,29 @@
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="H4" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1167,29 +1152,29 @@
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="H5" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="H5" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1198,29 +1183,29 @@
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
         <v>2</v>
       </c>
-      <c r="H6" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="H6" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1229,55 +1214,55 @@
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="H7" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="45">
-      <c r="A8" s="9" t="s">
+      <c r="H7" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="45">
+      <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="E8" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
         <v>7</v>
       </c>
-      <c r="H8" s="9" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I8" s="9">
-        <v>1</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="H8" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1291,24 +1276,24 @@
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="H9" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="H9" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1322,58 +1307,58 @@
       <c r="C10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>3</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="E10" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="H10" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
         <v>2</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="45">
-      <c r="A11" s="10" t="s">
+      <c r="J10" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="11">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
         <v>7</v>
       </c>
-      <c r="H11" s="9" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="H11" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
         <v>2</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1387,55 +1372,55 @@
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="E12" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
         <v>2</v>
       </c>
-      <c r="H12" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="45">
-      <c r="A13" s="10" t="s">
+      <c r="H12" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="E13" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
         <v>7</v>
       </c>
-      <c r="H13" s="9" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I13" s="9">
+      <c r="H13" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
         <v>2</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1449,24 +1434,24 @@
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="E14" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
         <v>2</v>
       </c>
-      <c r="H14" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="H14" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1480,24 +1465,24 @@
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="E15" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
         <v>2</v>
       </c>
-      <c r="H15" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4" t="s">
+      <c r="H15" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1511,1538 +1496,1538 @@
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="E16" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
         <v>2</v>
       </c>
-      <c r="H16" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="45">
-      <c r="A17" s="10" t="s">
+      <c r="H16" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45">
+      <c r="A17" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="E17" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
         <v>7</v>
       </c>
-      <c r="H17" s="9" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I17" s="9">
+      <c r="H17" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
         <v>2</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="45">
-      <c r="A18" s="10" t="s">
+      <c r="J17" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="45">
+      <c r="A18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="E18" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
         <v>7</v>
       </c>
-      <c r="H18" s="9" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I18" s="9">
+      <c r="H18" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
         <v>2</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="30">
-      <c r="A19" s="9" t="s">
+      <c r="J18" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30">
+      <c r="A19" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="E19" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
         <v>7</v>
       </c>
-      <c r="H19" s="9" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I19" s="9">
-        <v>1</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="45">
-      <c r="A20" s="9" t="s">
+      <c r="H19" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="45">
+      <c r="A20" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="E20" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
         <v>7</v>
       </c>
-      <c r="H20" s="9" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I20" s="9">
-        <v>1</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="45">
-      <c r="A21" s="9" t="s">
+      <c r="H20" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="45">
+      <c r="A21" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="E21" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
         <v>7</v>
       </c>
-      <c r="H21" s="9" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I21" s="9">
-        <v>1</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" ht="30">
-      <c r="A22" s="9" t="s">
+      <c r="H21" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30">
+      <c r="A22" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="E22" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
         <v>7</v>
       </c>
-      <c r="H22" s="9" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I22" s="9">
-        <v>1</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" ht="45">
-      <c r="A23" s="9" t="s">
+      <c r="H22" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45">
+      <c r="A23" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F23" s="9">
+      <c r="E23" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
         <v>7</v>
       </c>
-      <c r="H23" s="9" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I23" s="9">
-        <v>1</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" ht="30">
-      <c r="A24" s="9" t="s">
+      <c r="H23" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30">
+      <c r="A24" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F24" s="9">
+      <c r="E24" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
         <v>7</v>
       </c>
-      <c r="H24" s="9" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I24" s="9">
-        <v>1</v>
-      </c>
-      <c r="J24" s="9" t="s">
+      <c r="H24" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="45">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="E25" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
         <v>2</v>
       </c>
-      <c r="H25" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="4" t="s">
+      <c r="H25" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="45">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="9" customFormat="1" ht="45">
-      <c r="A27" s="9" t="s">
+      <c r="E26" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="45">
+      <c r="A27" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F27" s="9">
+      <c r="E27" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
         <v>7</v>
       </c>
-      <c r="H27" s="9" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I27" s="9">
-        <v>1</v>
-      </c>
-      <c r="J27" s="9" t="s">
+      <c r="H27" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="45">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4">
-        <v>3</v>
-      </c>
-      <c r="G28" s="4" t="s">
+      <c r="E28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I28" s="4">
-        <v>1</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" ht="45">
-      <c r="A29" s="9" t="s">
+      <c r="H28" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="45">
+      <c r="A29" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="11">
-        <v>3</v>
-      </c>
-      <c r="E29" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F29" s="9">
+      <c r="D29" s="5">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
         <v>7</v>
       </c>
-      <c r="H29" s="9" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I29" s="9">
-        <v>1</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" ht="45">
-      <c r="A30" s="9" t="s">
+      <c r="H29" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="45">
+      <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F30" s="9">
+      <c r="E30" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
         <v>7</v>
       </c>
-      <c r="H30" s="9" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I30" s="9">
-        <v>1</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="9" customFormat="1" ht="45">
-      <c r="A31" s="9" t="s">
+      <c r="H30" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="45">
+      <c r="A31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F31" s="9">
+      <c r="E31" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
         <v>7</v>
       </c>
-      <c r="H31" s="9" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I31" s="9">
-        <v>1</v>
-      </c>
-      <c r="J31" s="9" t="s">
+      <c r="H31" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>2</v>
       </c>
-      <c r="E32" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I32" s="4">
-        <v>3</v>
-      </c>
-      <c r="J32" s="4" t="s">
+      <c r="E32" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>2</v>
       </c>
-      <c r="E33" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I33" s="4">
-        <v>3</v>
-      </c>
-      <c r="J33" s="4" t="s">
+      <c r="E33" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
+        <v>3</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="45">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="6">
-        <v>3</v>
-      </c>
-      <c r="E34" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="4" t="s">
+      <c r="D34" s="5">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="45">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="6">
-        <v>3</v>
-      </c>
-      <c r="E35" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="4" t="s">
+      <c r="D35" s="5">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="30">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="4">
-        <v>3</v>
-      </c>
-      <c r="E36" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I36" s="4">
-        <v>3</v>
-      </c>
-      <c r="J36" s="4" t="s">
+      <c r="D36" s="3">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I36" s="3">
+        <v>3</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="45">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="4">
-        <v>3</v>
-      </c>
-      <c r="E37" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I37" s="4">
-        <v>1</v>
-      </c>
-      <c r="J37" s="4" t="s">
+      <c r="D37" s="3">
+        <v>3</v>
+      </c>
+      <c r="E37" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="45">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="4">
-        <v>3</v>
-      </c>
-      <c r="E38" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I38" s="4">
-        <v>1</v>
-      </c>
-      <c r="J38" s="4" t="s">
+      <c r="D38" s="3">
+        <v>3</v>
+      </c>
+      <c r="E38" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="45">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="4">
-        <v>3</v>
-      </c>
-      <c r="E39" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I39" s="4">
-        <v>1</v>
-      </c>
-      <c r="J39" s="4" t="s">
+      <c r="D39" s="3">
+        <v>3</v>
+      </c>
+      <c r="E39" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="45">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="4">
-        <v>3</v>
-      </c>
-      <c r="E40" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I40" s="4">
-        <v>1</v>
-      </c>
-      <c r="J40" s="4" t="s">
+      <c r="D40" s="3">
+        <v>3</v>
+      </c>
+      <c r="E40" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="45">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="4">
-        <v>3</v>
-      </c>
-      <c r="E41" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I41" s="4">
-        <v>1</v>
-      </c>
-      <c r="J41" s="4" t="s">
+      <c r="D41" s="3">
+        <v>3</v>
+      </c>
+      <c r="E41" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1</v>
+      </c>
+      <c r="J41" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="45">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="4">
-        <v>3</v>
-      </c>
-      <c r="E42" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I42" s="4">
-        <v>1</v>
-      </c>
-      <c r="J42" s="4" t="s">
+      <c r="D42" s="3">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="30">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="4">
-        <v>3</v>
-      </c>
-      <c r="E43" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43" s="4">
+      <c r="D43" s="3">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
         <v>5</v>
       </c>
-      <c r="H43" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="4" t="s">
+      <c r="H43" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="30">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="4">
-        <v>3</v>
-      </c>
-      <c r="E44" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F44" s="4">
+      <c r="D44" s="3">
+        <v>3</v>
+      </c>
+      <c r="E44" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
         <v>5</v>
       </c>
-      <c r="H44" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="4" t="s">
+      <c r="H44" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="30">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="4">
-        <v>3</v>
-      </c>
-      <c r="E45" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" s="4">
+      <c r="D45" s="3">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
         <v>5</v>
       </c>
-      <c r="H45" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="4" t="s">
+      <c r="H45" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="4">
-        <v>3</v>
-      </c>
-      <c r="E46" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="4" t="s">
+      <c r="D46" s="3">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="4">
-        <v>3</v>
-      </c>
-      <c r="E47" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="4" t="s">
+      <c r="D47" s="3">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="4">
-        <v>3</v>
-      </c>
-      <c r="E48" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="4" t="s">
+      <c r="D48" s="3">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="4">
-        <v>3</v>
-      </c>
-      <c r="E49" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="9" customFormat="1" ht="30">
-      <c r="A50" s="9" t="s">
+      <c r="D49" s="3">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="30">
+      <c r="A50" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="9" t="s">
+      <c r="B50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="3">
         <v>4</v>
       </c>
-      <c r="E50" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F50" s="9">
+      <c r="E50" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
         <v>7</v>
       </c>
-      <c r="H50" s="9" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I50" s="9">
-        <v>1</v>
-      </c>
-      <c r="J50" s="9" t="s">
+      <c r="H50" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="30">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <v>4</v>
       </c>
-      <c r="E51" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I51" s="4">
-        <v>3</v>
-      </c>
-      <c r="J51" s="4" t="s">
+      <c r="E51" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I51" s="3">
+        <v>3</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <v>4</v>
       </c>
-      <c r="E52" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I52" s="4">
-        <v>3</v>
-      </c>
-      <c r="J52" s="4" t="s">
+      <c r="E52" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I52" s="3">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="3">
         <v>4</v>
       </c>
-      <c r="E53" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H53" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I53" s="4">
-        <v>3</v>
-      </c>
-      <c r="J53" s="4" t="s">
+      <c r="E53" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I53" s="3">
+        <v>3</v>
+      </c>
+      <c r="J53" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <v>4</v>
       </c>
-      <c r="E54" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I54" s="4">
-        <v>3</v>
-      </c>
-      <c r="J54" s="4" t="s">
+      <c r="E54" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I54" s="3">
+        <v>3</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="3">
         <v>4</v>
       </c>
-      <c r="E55" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I55" s="4">
-        <v>3</v>
-      </c>
-      <c r="J55" s="4" t="s">
+      <c r="E55" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I55" s="3">
+        <v>3</v>
+      </c>
+      <c r="J55" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="30">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="3">
         <v>4</v>
       </c>
-      <c r="E56" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H56" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I56" s="4">
-        <v>3</v>
-      </c>
-      <c r="J56" s="4" t="s">
+      <c r="E56" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I56" s="3">
+        <v>3</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="30">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="3">
         <v>4</v>
       </c>
-      <c r="E57" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I57" s="4">
-        <v>3</v>
-      </c>
-      <c r="J57" s="4" t="s">
+      <c r="E57" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I57" s="3">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="30">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="3">
         <v>4</v>
       </c>
-      <c r="E58" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I58" s="4">
-        <v>3</v>
-      </c>
-      <c r="J58" s="4" t="s">
+      <c r="E58" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I58" s="3">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="30">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="3">
         <v>4</v>
       </c>
-      <c r="E59" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I59" s="4">
-        <v>3</v>
-      </c>
-      <c r="J59" s="4" t="s">
+      <c r="E59" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="30">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="3">
         <v>4</v>
       </c>
-      <c r="E60" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H60" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J60" s="4" t="s">
+      <c r="E60" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="30">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="3">
         <v>4</v>
       </c>
-      <c r="E61" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="4" t="s">
+      <c r="E61" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="30">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="3">
         <v>4</v>
       </c>
-      <c r="E62" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H62" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I62" s="4">
-        <v>3</v>
-      </c>
-      <c r="J62" s="4" t="s">
+      <c r="E62" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I62" s="3">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="45">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="3">
         <v>4</v>
       </c>
-      <c r="E63" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F63" s="4">
+      <c r="E63" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F63" s="3">
         <v>6</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H63" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I63" s="4">
-        <v>3</v>
-      </c>
-      <c r="J63" s="4" t="s">
+      <c r="H63" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I63" s="3">
+        <v>3</v>
+      </c>
+      <c r="J63" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="45">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="3">
         <v>6</v>
       </c>
-      <c r="E64" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I64" s="4">
-        <v>3</v>
-      </c>
-      <c r="J64" s="4" t="s">
+      <c r="E64" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I64" s="3">
+        <v>3</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="30">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="3">
         <v>5</v>
       </c>
-      <c r="E65" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J65" s="4" t="s">
+      <c r="E65" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="30">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="3">
         <v>5</v>
       </c>
-      <c r="E66" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="4" t="s">
+      <c r="E66" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="30">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="3">
         <v>5</v>
       </c>
-      <c r="E67" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="4" t="s">
+      <c r="E67" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="3">
         <v>6</v>
       </c>
-      <c r="E68" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="4" t="s">
+      <c r="E68" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="45">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="3">
         <v>6</v>
       </c>
-      <c r="E69" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J69" s="4" t="s">
+      <c r="E69" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="30">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="3">
         <v>6</v>
       </c>
-      <c r="E70" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H70" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J70" s="4" t="s">
+      <c r="E70" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3053,24 +3038,24 @@
       <c r="B71" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="3">
         <v>6</v>
       </c>
-      <c r="E71" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I71" s="4">
-        <v>3</v>
-      </c>
-      <c r="J71" s="4" t="s">
+      <c r="E71" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I71" s="3">
+        <v>3</v>
+      </c>
+      <c r="J71" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3081,124 +3066,124 @@
       <c r="B72" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="3">
         <v>6</v>
       </c>
-      <c r="E72" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="4" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I72" s="4">
-        <v>3</v>
-      </c>
-      <c r="J72" s="4" t="s">
+      <c r="E72" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I72" s="3">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="45">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="3">
         <v>6</v>
       </c>
-      <c r="E73" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J73" s="4" t="s">
+      <c r="E73" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="45">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="3">
         <v>6</v>
       </c>
-      <c r="E74" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="4" t="s">
+      <c r="E74" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J74" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="45">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="3">
         <v>6</v>
       </c>
-      <c r="E75" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="4" t="s">
+      <c r="E75" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="45">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="3">
         <v>6</v>
       </c>
-      <c r="E76" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H76" s="4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J76" s="4" t="s">
+      <c r="E76" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="3" t="s">
         <v>142</v>
       </c>
     </row>
